--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -44945,7 +44945,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -64825,6 +64825,47 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="59" master=""/>
+  <rangeList sheetStid="60" master=""/>
+  <rangeList sheetStid="61" master=""/>
+  <rangeList sheetStid="62" master=""/>
+  <rangeList sheetStid="63" master=""/>
+  <rangeList sheetStid="64" master=""/>
+  <rangeList sheetStid="31" master=""/>
+  <rangeList sheetStid="32" master=""/>
+  <rangeList sheetStid="66" master=""/>
+  <rangeList sheetStid="33" master=""/>
+  <rangeList sheetStid="34" master=""/>
+  <rangeList sheetStid="35" master=""/>
+  <rangeList sheetStid="36" master=""/>
+  <rangeList sheetStid="37" master=""/>
+  <rangeList sheetStid="38" master=""/>
+  <rangeList sheetStid="39" master=""/>
+  <rangeList sheetStid="40" master=""/>
+  <rangeList sheetStid="41" master=""/>
+  <rangeList sheetStid="42" master=""/>
+  <rangeList sheetStid="43" master=""/>
+  <rangeList sheetStid="44" master=""/>
+  <rangeList sheetStid="45" master=""/>
+  <rangeList sheetStid="46" master=""/>
+  <rangeList sheetStid="47" master=""/>
+  <rangeList sheetStid="48" master=""/>
+  <rangeList sheetStid="49" master=""/>
+  <rangeList sheetStid="50" master=""/>
+  <rangeList sheetStid="51" master=""/>
+  <rangeList sheetStid="52" master=""/>
+  <rangeList sheetStid="53" master=""/>
+  <rangeList sheetStid="54" master=""/>
+  <rangeList sheetStid="55" master=""/>
+  <rangeList sheetStid="56" master=""/>
+  <rangeList sheetStid="57" master=""/>
+  <rangeList sheetStid="58" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -64870,48 +64911,11 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="59" master=""/>
-  <rangeList sheetStid="60" master=""/>
-  <rangeList sheetStid="61" master=""/>
-  <rangeList sheetStid="62" master=""/>
-  <rangeList sheetStid="63" master=""/>
-  <rangeList sheetStid="64" master=""/>
-  <rangeList sheetStid="31" master=""/>
-  <rangeList sheetStid="32" master=""/>
-  <rangeList sheetStid="66" master=""/>
-  <rangeList sheetStid="33" master=""/>
-  <rangeList sheetStid="34" master=""/>
-  <rangeList sheetStid="35" master=""/>
-  <rangeList sheetStid="36" master=""/>
-  <rangeList sheetStid="37" master=""/>
-  <rangeList sheetStid="38" master=""/>
-  <rangeList sheetStid="39" master=""/>
-  <rangeList sheetStid="40" master=""/>
-  <rangeList sheetStid="41" master=""/>
-  <rangeList sheetStid="42" master=""/>
-  <rangeList sheetStid="43" master=""/>
-  <rangeList sheetStid="44" master=""/>
-  <rangeList sheetStid="45" master=""/>
-  <rangeList sheetStid="46" master=""/>
-  <rangeList sheetStid="47" master=""/>
-  <rangeList sheetStid="48" master=""/>
-  <rangeList sheetStid="49" master=""/>
-  <rangeList sheetStid="50" master=""/>
-  <rangeList sheetStid="51" master=""/>
-  <rangeList sheetStid="52" master=""/>
-  <rangeList sheetStid="53" master=""/>
-  <rangeList sheetStid="54" master=""/>
-  <rangeList sheetStid="55" master=""/>
-  <rangeList sheetStid="56" master=""/>
-  <rangeList sheetStid="57" master=""/>
-  <rangeList sheetStid="58" master=""/>
-</allowEditUser>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="59"/>
@@ -64953,11 +64957,16 @@
 </pixelators>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -64966,17 +64975,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -64985,7 +64985,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
